--- a/biology/Zoologie/Hemichordata/Hemichordata.xlsx
+++ b/biology/Zoologie/Hemichordata/Hemichordata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hémichordés (Hemichordata), ou Stomochordata, sont un embranchement d'animaux appartenant à l'infra-règne des Deuterostomia et au super-embranchement des Ambulacraires, groupe frère des Xenoturbella.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hémichordés sont divisés en deux classes : les gros entéropneustes (Enteropneusta) et les petits ptérobranches (Pterobranchia), qui comptent une vingtaine d'espèces. Cet embranchement contient aujourd'hui entre 100 et 300 espèces[1].
-Les entéropneustes sont des vers marins (par exemple, Saccoglossus). Leur corps est divisé en trois parties : le proboscis, le col et le tronc. Leur système circulatoire est ouvert (comme les échinodermes), et leur système digestif est assez avancé, quoiqu'équipé de muscles très peu développés (la nourriture est essentiellement poussée par l'épiderme cilié). La respiration est assurée par des fentes branchiales ouvertes dans le pharynx (d'où le nom d'entéropneuste : les poumons dans l'intestin). Les plus gros entéropneustes peuvent mesurer jusqu'à 2,5 m de long, et sont essentiellement visibles par les imposants tas de déjections qu'ils expulsent du sable, formant des boudins de sable fin aggloméré[1].
-Les ptérobranches sont de petits animaux coloniaux, connectés par des tubes de collagène. Le proboscis n'est pas allongé comme chez les entéropneustes. Ils se nourrissent au moyen de tentacules ramifiés qui filtrent l'eau pour en retenir le plancton (jadis pris pour des branchies, d'où le nom)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hémichordés sont divisés en deux classes : les gros entéropneustes (Enteropneusta) et les petits ptérobranches (Pterobranchia), qui comptent une vingtaine d'espèces. Cet embranchement contient aujourd'hui entre 100 et 300 espèces.
+Les entéropneustes sont des vers marins (par exemple, Saccoglossus). Leur corps est divisé en trois parties : le proboscis, le col et le tronc. Leur système circulatoire est ouvert (comme les échinodermes), et leur système digestif est assez avancé, quoiqu'équipé de muscles très peu développés (la nourriture est essentiellement poussée par l'épiderme cilié). La respiration est assurée par des fentes branchiales ouvertes dans le pharynx (d'où le nom d'entéropneuste : les poumons dans l'intestin). Les plus gros entéropneustes peuvent mesurer jusqu'à 2,5 m de long, et sont essentiellement visibles par les imposants tas de déjections qu'ils expulsent du sable, formant des boudins de sable fin aggloméré.
+Les ptérobranches sont de petits animaux coloniaux, connectés par des tubes de collagène. Le proboscis n'est pas allongé comme chez les entéropneustes. Ils se nourrissent au moyen de tentacules ramifiés qui filtrent l'eau pour en retenir le plancton (jadis pris pour des branchies, d'où le nom).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement apparu au Cambrien comprend un groupe important de fossiles, les graptolites (Graptolithoidea) ou ptérobranches fossiles, la plupart d'entre eux disparus au Carbonifère. Plusieurs espèces ont survécu, dont Cephalodiscus graptolitoides ou Spartobranchus tenuis[2]. Ils doivent leur nom à leur coquille dure interne analogue à la chorde. Ils sont pour la plupart limnivores.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement apparu au Cambrien comprend un groupe important de fossiles, les graptolites (Graptolithoidea) ou ptérobranches fossiles, la plupart d'entre eux disparus au Carbonifère. Plusieurs espèces ont survécu, dont Cephalodiscus graptolitoides ou Spartobranchus tenuis. Ils doivent leur nom à leur coquille dure interne analogue à la chorde. Ils sont pour la plupart limnivores.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a longtemps placé dans la classification du vivant les hémichordés à la base des chordés, mais on les pense désormais plus proches des échinodermes, les ares étant particulièrement ressemblantes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a longtemps placé dans la classification du vivant les hémichordés à la base des chordés, mais on les pense désormais plus proches des échinodermes, les ares étant particulièrement ressemblantes.
 </t>
         </is>
       </c>
